--- a/Annee3/S5/R5_D_11_Integration_Performance_SI/Partie_Compta_Moulin/TD2_02.xlsx
+++ b/Annee3/S5/R5_D_11_Integration_Performance_SI/Partie_Compta_Moulin/TD2_02.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t xml:space="preserve">Tableau de répartition des coûts </t>
   </si>
   <si>
-    <t xml:space="preserve">Charges </t>
+    <t xml:space="preserve">Charges</t>
   </si>
   <si>
     <t xml:space="preserve">Opérationnels</t>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">Listes </t>
   </si>
   <si>
-    <t xml:space="preserve">Montants</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entretien </t>
   </si>
   <si>
@@ -56,20 +53,112 @@
   </si>
   <si>
     <t xml:space="preserve">Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Référencement du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hébergement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agence d'entretien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rémunération des capitaux propres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amortissement four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amortissement tour électrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salaire dirigeant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise au norme atelier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche fournisseur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total après répartition primaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entretien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total après répartition secondaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature de l'unité d'œuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kg de matière achetée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kg matière utilisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heures de MOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unité vendue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cout de production des produits vendus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre d'unité d'œuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cout de l'unité d'œuvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cout d’achat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cout de production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atelier Fabrication et cuisson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cout hors production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site web, centre D’administration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0\ %"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000&quot; €&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -90,20 +179,30 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -136,10 +235,24 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -166,44 +279,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,133 +449,637 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B10:K17"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.05"/>
   </cols>
   <sheetData>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="n">
+        <v>3625</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13" t="n">
+        <f aca="false">SUM(B5:H5)</f>
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="13" t="n">
+        <f aca="false">SUM(B6:H6)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="13" t="n">
+        <f aca="false">SUM(B7:H7)</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13" t="n">
+        <f aca="false">SUM(B8:H8)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13" t="n">
+        <f aca="false">SUM(B9:H9)</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="13" t="n">
+        <f aca="false">SUM(B10:H10)</f>
+        <v>5000</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="n">
+        <v>2609</v>
+      </c>
+      <c r="I11" s="13" t="n">
+        <f aca="false">SUM(B11:H11)</f>
+        <v>2609</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="13" t="n">
+        <f aca="false">SUM(B12:H12)</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13" t="n">
+        <f aca="false">SUM(B13:H13)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <f aca="false">SUM(B14:H14)</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="n">
+        <v>5450</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>800</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="13" t="n">
+        <f aca="false">SUM(B15:H15)</f>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="n">
+        <v>350</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="13" t="n">
+        <f aca="false">SUM(B16:H16)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="15" t="n">
+        <f aca="false">SUM(B4:B16)</f>
+        <v>6500</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <f aca="false">SUM(C4:C16)</f>
+        <v>5000</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <f aca="false">SUM(D4:D16)</f>
+        <v>3350</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <f aca="false">SUM(E4:E16)</f>
+        <v>16450</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <f aca="false">SUM(F4:F16)</f>
+        <v>14800</v>
+      </c>
+      <c r="G17" s="15" t="n">
+        <f aca="false">SUM(G4:G16)</f>
+        <v>14625</v>
+      </c>
+      <c r="H17" s="15" t="n">
+        <f aca="false">SUM(H4:H16)</f>
+        <v>5609</v>
+      </c>
+      <c r="I17" s="13" t="n">
+        <f aca="false">SUM(B17:H17)</f>
+        <v>66334</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <f aca="false">B19*$B17</f>
+        <v>-6500</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <f aca="false">C19*$B17</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <f aca="false">D19*$B17</f>
+        <v>650</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <f aca="false">E19*$B17</f>
+        <v>1300</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <f aca="false">F19*$B17</f>
+        <v>3575</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <f aca="false">G19*$B17</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <f aca="false">H19*$B17</f>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <f aca="false">B20*$C17</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <f aca="false">C20*$C17</f>
+        <v>-5000</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <f aca="false">D20*$C17</f>
+        <v>1000</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <f aca="false">E20*$C17</f>
+        <v>1000</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <f aca="false">F20*$C17</f>
+        <v>1000</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <f aca="false">G20*$C17</f>
+        <v>1000</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <f aca="false">H20*$C17</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="15" t="n">
+        <f aca="false">SUM(B22:B23)+B17</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="15" t="n">
+        <f aca="false">SUM(C22:C23)+C17</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <f aca="false">SUM(D22:D23)+D17</f>
+        <v>5000</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <f aca="false">SUM(E22:E23)+E17</f>
+        <v>18750</v>
+      </c>
+      <c r="F24" s="15" t="n">
+        <f aca="false">SUM(F22:F23)+F17</f>
+        <v>19375</v>
+      </c>
+      <c r="G24" s="15" t="n">
+        <f aca="false">SUM(G22:G23)+G17</f>
+        <v>15625</v>
+      </c>
+      <c r="H24" s="15" t="n">
+        <f aca="false">SUM(H22:H23)+H17</f>
+        <v>7584</v>
+      </c>
+      <c r="I24" s="13" t="n">
+        <f aca="false">SUM(D24:H24)</f>
+        <v>66334</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="19" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E26" s="19" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F26" s="19" t="n">
+        <v>1240</v>
+      </c>
+      <c r="G26" s="19" t="n">
+        <v>4815</v>
+      </c>
+      <c r="H26" s="10" t="n">
+        <v>83070</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="20" t="n">
+        <f aca="false">D24/D26</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E27" s="20" t="n">
+        <f aca="false">E24/E26</f>
+        <v>2.5</v>
+      </c>
+      <c r="F27" s="20" t="n">
+        <f aca="false">F24/F26</f>
+        <v>15.625</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <f aca="false">G24/G26</f>
+        <v>3.24506749740395</v>
+      </c>
+      <c r="H27" s="20" t="n">
+        <f aca="false">H24/H26</f>
+        <v>0.0912964969302997</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O67" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:K11"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
